--- a/2-data-understanding/1-input/support/homeworking/homeworking.xlsx
+++ b/2-data-understanding/1-input/support/homeworking/homeworking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\hrms-gys\hrms-gys-ml\1-data-understanding\1-input\support\homeworking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\hrms-gys\hrms-gys-ml\2-data-understanding\1-input\support\homeworking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4661EB8-7D2B-40F2-8EB1-CF2A7C9875FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AB90DE-610D-404F-B135-FF8BF58E4A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="309">
   <si>
     <t>Juan</t>
   </si>
@@ -952,6 +952,18 @@
   </si>
   <si>
     <t>Reyes</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>Geraldine</t>
+  </si>
+  <si>
+    <t>Teran</t>
+  </si>
+  <si>
+    <t>Rebaza</t>
   </si>
 </sst>
 </file>
@@ -1308,12 +1320,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13883A-6976-4FDD-BF62-8F22C76FC29D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I2" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,6 +2646,20 @@
         <v>304</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D40" xr:uid="{AE13883A-6976-4FDD-BF62-8F22C76FC29D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
